--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_15_3.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9838895447572473</v>
+        <v>0.9986923654115339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9856563014258708</v>
+        <v>0.9982666292377672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9864621333397362</v>
+        <v>0.9986508072085031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9401153349658676</v>
+        <v>0.9989797263365954</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9784348807858729</v>
+        <v>0.9987658334544927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01503840280185505</v>
+        <v>0.00122061948980844</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01338921300334975</v>
+        <v>0.001618025520361491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02033488984798831</v>
+        <v>0.001465444226080351</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01931429781960146</v>
+        <v>0.0005352278695480538</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01982459383379489</v>
+        <v>0.001000336047814203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01388650316542336</v>
+        <v>0.003836179046490268</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1226311657037274</v>
+        <v>0.03493736523850131</v>
       </c>
       <c r="N2" t="n">
-        <v>1.042961213980674</v>
+        <v>1.003487025569243</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1278518283092438</v>
+        <v>0.03642472120702056</v>
       </c>
       <c r="P2" t="n">
-        <v>74.39429632556975</v>
+        <v>79.41679354116272</v>
       </c>
       <c r="Q2" t="n">
-        <v>114.6171985462204</v>
+        <v>119.6396957618133</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9836136577131424</v>
+        <v>0.9986678103943136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9854073149488939</v>
+        <v>0.9982469962697199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9863164794875842</v>
+        <v>0.9986352633509227</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9392378900083304</v>
+        <v>0.9989556239597847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9781619631030843</v>
+        <v>0.9987476188966462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01529593124748534</v>
+        <v>0.001243540520542961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01362163095036446</v>
+        <v>0.001636352034245932</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02055367284487954</v>
+        <v>0.001482327399845901</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0195972956992844</v>
+        <v>0.00054787179465772</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02007548427208197</v>
+        <v>0.001015099597251811</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01401269203614917</v>
+        <v>0.00387199878514526</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1236767207177056</v>
+        <v>0.03526386990310282</v>
       </c>
       <c r="N3" t="n">
-        <v>1.043696912764954</v>
+        <v>1.003552505615164</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1289418947647643</v>
+        <v>0.03676512585115199</v>
       </c>
       <c r="P3" t="n">
-        <v>74.36033683497342</v>
+        <v>79.37958541874154</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.583239055624</v>
+        <v>119.6024876393922</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9833320883896319</v>
+        <v>0.9986427897839105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9851528773345819</v>
+        <v>0.9982269504365513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9861680725951253</v>
+        <v>0.9986195554099995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9383422429415466</v>
+        <v>0.9989310169291525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9778836032261912</v>
+        <v>0.9987291310880611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01555876385151753</v>
+        <v>0.001266896162076381</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01385913729480423</v>
+        <v>0.001655063939598455</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02077659111454257</v>
+        <v>0.001499388794981285</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01988616421310601</v>
+        <v>0.0005607804573563451</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02033137766382429</v>
+        <v>0.001030084626168815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01414028637490616</v>
+        <v>0.003908146734938304</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1247347740268027</v>
+        <v>0.03559348482624849</v>
       </c>
       <c r="N4" t="n">
-        <v>1.044447764294315</v>
+        <v>1.003619227242905</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1300449915937019</v>
+        <v>0.03710877316397292</v>
       </c>
       <c r="P4" t="n">
-        <v>74.32626241475522</v>
+        <v>79.34237067348502</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.5491646354058</v>
+        <v>119.5652728941356</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9830453272408697</v>
+        <v>0.9986172614084481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.984893452147758</v>
+        <v>0.9982064266297433</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9860175450314511</v>
+        <v>0.9986035724927758</v>
       </c>
       <c r="E5" t="n">
-        <v>0.93743265094054</v>
+        <v>0.9989057884329411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9776010645820737</v>
+        <v>0.9987102579260432</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01582644279652743</v>
+        <v>0.001290725780004332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01410129931925478</v>
+        <v>0.001674222012362704</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02100269479123081</v>
+        <v>0.001516748859390996</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02017953031595979</v>
+        <v>0.0005740151362111059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0205911125535953</v>
+        <v>0.001045381997801051</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01426902457041902</v>
+        <v>0.003944681856691791</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1258031907247484</v>
+        <v>0.03592667226454925</v>
       </c>
       <c r="N5" t="n">
-        <v>1.045212460691014</v>
+        <v>1.003687302910805</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1311588930024067</v>
+        <v>0.03745614508131523</v>
       </c>
       <c r="P5" t="n">
-        <v>74.29214628626271</v>
+        <v>79.30510119732308</v>
       </c>
       <c r="Q5" t="n">
-        <v>114.5150485069133</v>
+        <v>119.5280034179737</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9827524110127785</v>
+        <v>0.9985911902882417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9846281416455231</v>
+        <v>0.9981853899654002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9858632417847699</v>
+        <v>0.9985873503164265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9365018123433998</v>
+        <v>0.9988796322655231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.977311714203517</v>
+        <v>0.9986909242513715</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01609986723791405</v>
+        <v>0.001315062026327088</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01434895502730594</v>
+        <v>0.001693858815124142</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02123446982663269</v>
+        <v>0.001534368798376177</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02047974897589382</v>
+        <v>0.0005877364643848948</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02085710940126325</v>
+        <v>0.001061052631380536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01439921765846706</v>
+        <v>0.0039816200829964</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1268852522475092</v>
+        <v>0.03626378394937694</v>
       </c>
       <c r="N6" t="n">
-        <v>1.04599357063259</v>
+        <v>1.003756825898022</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1322870201243676</v>
+        <v>0.03780760830848343</v>
       </c>
       <c r="P6" t="n">
-        <v>74.25788850623603</v>
+        <v>79.26774289231045</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.4807907268867</v>
+        <v>119.4906451129611</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9824535050859231</v>
+        <v>0.9985645738490383</v>
       </c>
       <c r="C7" t="n">
-        <v>0.984357055605109</v>
+        <v>0.9981638462301518</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9857060097535668</v>
+        <v>0.9985707772354868</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9355530034422722</v>
+        <v>0.998852853879956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.977016818715539</v>
+        <v>0.9986711541056273</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01637888280017981</v>
+        <v>0.001339907303996886</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01460200194673059</v>
+        <v>0.001713968946317914</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0214706441157823</v>
+        <v>0.00155236987718749</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02078576350698993</v>
+        <v>0.0006017842035073223</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02112820381138612</v>
+        <v>0.001077077040347406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01453084662633478</v>
+        <v>0.004019002801190763</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1279800093771672</v>
+        <v>0.03660474428263209</v>
       </c>
       <c r="N7" t="n">
-        <v>1.046790653104205</v>
+        <v>1.003827803069231</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1334283833314948</v>
+        <v>0.03816308402901043</v>
       </c>
       <c r="P7" t="n">
-        <v>74.22352481600103</v>
+        <v>79.23030968706765</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.4464270366517</v>
+        <v>119.4532119077183</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9821475769699236</v>
+        <v>0.9985374196437641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9840791889085748</v>
+        <v>0.9981417588574958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9855432664381971</v>
+        <v>0.998553978729641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9345805607112398</v>
+        <v>0.9988249833292945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.97671327477883</v>
+        <v>0.99865087948493</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01666445326777306</v>
+        <v>0.001365254562688449</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01486137831100693</v>
+        <v>0.001734586539168595</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02171509676660153</v>
+        <v>0.001570615804347547</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02109940053758799</v>
+        <v>0.0006164048842019319</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02140724865209476</v>
+        <v>0.00109351034427474</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01466404911665056</v>
+        <v>0.004056764217087158</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1290908721318942</v>
+        <v>0.03694935131620647</v>
       </c>
       <c r="N8" t="n">
-        <v>1.047606461413537</v>
+        <v>1.003900214283296</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1345865378134934</v>
+        <v>0.03852236169743898</v>
       </c>
       <c r="P8" t="n">
-        <v>74.18895474994989</v>
+        <v>79.19282874984157</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.4118569706005</v>
+        <v>119.4157309704922</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9818358125853891</v>
+        <v>0.9985097354054732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9837957281678522</v>
+        <v>0.9981192110756956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9853782085613466</v>
+        <v>0.9985370719115914</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9335910032897543</v>
+        <v>0.9987966662142608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9764048376303591</v>
+        <v>0.9986303877799735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01695547163586119</v>
+        <v>0.001391096583935466</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01512597646998296</v>
+        <v>0.001755633903745907</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02196302606214931</v>
+        <v>0.001588979376290977</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02141855748264689</v>
+        <v>0.0006312598291984162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0216907917723981</v>
+        <v>0.001110119602744697</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01479860798754252</v>
+        <v>0.00409487652954871</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1302131776582585</v>
+        <v>0.03729740720124478</v>
       </c>
       <c r="N9" t="n">
-        <v>1.048437833105629</v>
+        <v>1.003974038918738</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1357566222096077</v>
+        <v>0.03888523504207837</v>
       </c>
       <c r="P9" t="n">
-        <v>74.15432937374489</v>
+        <v>79.15532586711765</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.3772315943955</v>
+        <v>119.3782280877683</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9815191784406818</v>
+        <v>0.9984815648452283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9835076113149898</v>
+        <v>0.9980962466700302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9852137653838957</v>
+        <v>0.9985199227564893</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9325908108470056</v>
+        <v>0.9987680600460667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9760950370733882</v>
+        <v>0.9986096401622822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01725103571131276</v>
+        <v>0.001417392565379316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01539492090526194</v>
+        <v>0.001777070168413611</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02221003203315142</v>
+        <v>0.001607606165942546</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02174114448726908</v>
+        <v>0.0006462664093029776</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02197558826021025</v>
+        <v>0.001126936287622762</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01493422651243374</v>
+        <v>0.004133315843774962</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1313431981920372</v>
+        <v>0.03764827440108399</v>
       </c>
       <c r="N10" t="n">
-        <v>1.049282190824848</v>
+        <v>1.004049160412724</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1369347500569744</v>
+        <v>0.03925103938500998</v>
       </c>
       <c r="P10" t="n">
-        <v>74.1197661921433</v>
+        <v>79.11787263370846</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.3426684127939</v>
+        <v>119.3407748543591</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9811965919131681</v>
+        <v>0.9984527913054686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9832138106264224</v>
+        <v>0.9980727139615672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.985046585030233</v>
+        <v>0.9985025723590779</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9315746974291416</v>
+        <v>0.9987384824099141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9757802074410661</v>
+        <v>0.9985884433312789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0175521560748348</v>
+        <v>0.001444251401732548</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01566917095167977</v>
+        <v>0.001799036918797303</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02246114944786632</v>
+        <v>0.00162645153768392</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02206886640338789</v>
+        <v>0.0006617826141722941</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02226500792562711</v>
+        <v>0.001144117075928107</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01507102740427865</v>
+        <v>0.004172164524627654</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1324845503250655</v>
+        <v>0.03800330777356817</v>
       </c>
       <c r="N11" t="n">
-        <v>1.050142421564885</v>
+        <v>1.004125889852084</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1381246919132303</v>
+        <v>0.03962118726318122</v>
       </c>
       <c r="P11" t="n">
-        <v>74.08515696669834</v>
+        <v>79.08032830548498</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.308059187349</v>
+        <v>119.3032305261356</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.980867287195085</v>
+        <v>0.9984235032068759</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9829135835951298</v>
+        <v>0.9980487440951238</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9848756253451818</v>
+        <v>0.9984850709996663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9305370445901558</v>
+        <v>0.9987085771208342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.975458511726098</v>
+        <v>0.9985670393201986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01785954757435891</v>
+        <v>0.001471590556169958</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01594941970694787</v>
+        <v>0.001821411736966739</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02271794370143703</v>
+        <v>0.001645460878869201</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02240353531994776</v>
+        <v>0.0006774707032964288</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02256073951069239</v>
+        <v>0.001161465791082815</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0152093306059342</v>
+        <v>0.00421134372249514</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1336396182812526</v>
+        <v>0.03836131588162688</v>
       </c>
       <c r="N12" t="n">
-        <v>1.051020567479773</v>
+        <v>1.004203991448331</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1393289335036327</v>
+        <v>0.03999443651757893</v>
       </c>
       <c r="P12" t="n">
-        <v>74.05043407127491</v>
+        <v>79.04282290428702</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.2733362919255</v>
+        <v>119.2657251249376</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9805323490510212</v>
+        <v>0.9983935694394571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9826079475206317</v>
+        <v>0.9980241411756073</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9847043289414639</v>
+        <v>0.998467120878588</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9294857737410243</v>
+        <v>0.9986776336581786</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9751341520391164</v>
+        <v>0.998544998664332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01817219762975718</v>
+        <v>0.001499532414114781</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01623471756661865</v>
+        <v>0.001844377482391967</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02297524373166884</v>
+        <v>0.001664957648684047</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02274259638437254</v>
+        <v>0.0006937034104490446</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02285892005802069</v>
+        <v>0.001179330529566546</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01534891957162561</v>
+        <v>0.00425105203118927</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1348042938105355</v>
+        <v>0.03872379648374861</v>
       </c>
       <c r="N13" t="n">
-        <v>1.051913735863944</v>
+        <v>1.004283814828114</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1405431916814078</v>
+        <v>0.04037234866937127</v>
       </c>
       <c r="P13" t="n">
-        <v>74.0157249112694</v>
+        <v>79.0052038867869</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.23862713192</v>
+        <v>119.2281061074375</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9801883055232804</v>
+        <v>0.9983630368376915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9822934968161383</v>
+        <v>0.9979989864772654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9845241403372087</v>
+        <v>0.9984490254115282</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9283987740307651</v>
+        <v>0.9986456786850342</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9747962600577591</v>
+        <v>0.9985225332891715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01849334716113768</v>
+        <v>0.001528033257636728</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01652824349647263</v>
+        <v>0.001867858289130492</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02324590051322427</v>
+        <v>0.001684612288027023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02309318089748286</v>
+        <v>0.0007104667483759408</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02316954070535356</v>
+        <v>0.001197539518201482</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01549048464051529</v>
+        <v>0.004291153122777689</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1359902465662066</v>
+        <v>0.03909006597125065</v>
       </c>
       <c r="N14" t="n">
-        <v>1.052831185271252</v>
+        <v>1.004365235099489</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1417796329011485</v>
+        <v>0.04075421100723863</v>
       </c>
       <c r="P14" t="n">
-        <v>73.98068844897112</v>
+        <v>78.96754764601121</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.2035906696217</v>
+        <v>119.1904498666619</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9798379811245985</v>
+        <v>0.9983319682134018</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9819728866728472</v>
+        <v>0.9979733586643282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9843415190009064</v>
+        <v>0.9984307883363721</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9272981946119638</v>
+        <v>0.998613413927912</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9744539984311968</v>
+        <v>0.9984998727838578</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01882035960984332</v>
+        <v>0.001557034454656164</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01682751899207605</v>
+        <v>0.001891780727576434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0235202114405507</v>
+        <v>0.001704420736943</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02344814520523569</v>
+        <v>0.0007273925966413681</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0234841783228932</v>
+        <v>0.001215906666792184</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01563326415984433</v>
+        <v>0.004331537712322741</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1371873157760706</v>
+        <v>0.03945927590131583</v>
       </c>
       <c r="N15" t="n">
-        <v>1.053765383667737</v>
+        <v>1.004448084764262</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1430276638255513</v>
+        <v>0.0411391389683966</v>
       </c>
       <c r="P15" t="n">
-        <v>73.94563207430362</v>
+        <v>78.92994451500307</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.1685342949542</v>
+        <v>119.1528467356537</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9794800775078143</v>
+        <v>0.9983003038409604</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9816448733972153</v>
+        <v>0.9979472236773771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9841538494539842</v>
+        <v>0.9984122893479035</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9261720120970485</v>
+        <v>0.9985807719629838</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9741031212256779</v>
+        <v>0.9984769147215703</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01915444692595829</v>
+        <v>0.001586591756424912</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01713370498675974</v>
+        <v>0.001916176590701916</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02380210515839069</v>
+        <v>0.001724513666589909</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02381136714995068</v>
+        <v>0.000744516325277183</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02380673615417069</v>
+        <v>0.001234514995933546</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01577751950125047</v>
+        <v>0.004372339511510475</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1383995914949112</v>
+        <v>0.03983204434152121</v>
       </c>
       <c r="N16" t="n">
-        <v>1.054719793312495</v>
+        <v>1.004532523090772</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1442915486314996</v>
+        <v>0.04152777693283858</v>
       </c>
       <c r="P16" t="n">
-        <v>73.91044074971715</v>
+        <v>78.89233422571739</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.1333429703678</v>
+        <v>119.115236446368</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9791146098146309</v>
+        <v>0.9982679738455456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9813096024995598</v>
+        <v>0.9979204404551912</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9839622270615331</v>
+        <v>0.9983935174511304</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9250213316357909</v>
+        <v>0.9985467988253317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9737447171940695</v>
+        <v>0.9984533430242134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01949559497536733</v>
+        <v>0.001616770388021856</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01744666565302962</v>
+        <v>0.001941177552964848</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02408993634632366</v>
+        <v>0.001744903019328897</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02418249029326719</v>
+        <v>0.0007623383770850445</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02413621331979543</v>
+        <v>0.001253620698206971</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01592348315059772</v>
+        <v>0.004413569060599656</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1396266270285411</v>
+        <v>0.04020908340191127</v>
       </c>
       <c r="N17" t="n">
-        <v>1.055694373827651</v>
+        <v>1.004618736411879</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1455708216081099</v>
+        <v>0.04192086732660789</v>
       </c>
       <c r="P17" t="n">
-        <v>73.87513347526101</v>
+        <v>78.85464941443914</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.0980356959116</v>
+        <v>119.0775516350898</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9787436464639354</v>
+        <v>0.9982350897432566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9809692049568894</v>
+        <v>0.997893215427342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9837713104231476</v>
+        <v>0.9983747126345196</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9238613338369528</v>
+        <v>0.9985126434630737</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9733852552924235</v>
+        <v>0.9984296903002058</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01984187297983241</v>
+        <v>0.001647466254063343</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01776441181738714</v>
+        <v>0.001966590921421487</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02437670743878189</v>
+        <v>0.001765328128400377</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02455661851030028</v>
+        <v>0.0007802560225469284</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02446666297454108</v>
+        <v>0.001272792075473653</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01607040558136739</v>
+        <v>0.00445512230663093</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1408611833679968</v>
+        <v>0.0405889917842676</v>
       </c>
       <c r="N18" t="n">
-        <v>1.056683609429506</v>
+        <v>1.004706427351316</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1468579355668201</v>
+        <v>0.0423169491953199</v>
       </c>
       <c r="P18" t="n">
-        <v>73.83992155471157</v>
+        <v>78.81703354983048</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.0628237753622</v>
+        <v>119.0399357704811</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.978367243469035</v>
+        <v>0.9982016045905118</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9806237586037975</v>
+        <v>0.9978654444127326</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9835819334872765</v>
+        <v>0.9983557001217094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9226893920541375</v>
+        <v>0.9984778879933424</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9730249560682122</v>
+        <v>0.9984057042140005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02019322865339004</v>
+        <v>0.001678723174322241</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01808687082465606</v>
+        <v>0.001992513944552692</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02466116578272402</v>
+        <v>0.001785978829542936</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02493459896001353</v>
+        <v>0.0007984884798636961</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02479788237136878</v>
+        <v>0.001292233654703316</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01621844456150112</v>
+        <v>0.004497015368746041</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1421028805246046</v>
+        <v>0.040972224424874</v>
       </c>
       <c r="N19" t="n">
-        <v>1.05768735074924</v>
+        <v>1.004795721091969</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1481524943420521</v>
+        <v>0.04271649684283784</v>
       </c>
       <c r="P19" t="n">
-        <v>73.80481589190171</v>
+        <v>78.77944357961877</v>
       </c>
       <c r="Q19" t="n">
-        <v>114.0277181125523</v>
+        <v>119.0023458002694</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9779814610025868</v>
+        <v>0.9981674713908318</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9802688433332468</v>
+        <v>0.9978371117992817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9833837742251565</v>
+        <v>0.9983365033760893</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9214882888992227</v>
+        <v>0.998442494335995</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9726523663878527</v>
+        <v>0.9983813881636749</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02055333965192631</v>
+        <v>0.001710585017949161</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01841816865073529</v>
+        <v>0.002018961195551163</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02495881583857778</v>
+        <v>0.001806829637674958</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02532198467942706</v>
+        <v>0.0008170557255910546</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02514040025900242</v>
+        <v>0.001311942681633006</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01636834257816205</v>
+        <v>0.004539326706126002</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1433643597688293</v>
+        <v>0.04135921926184247</v>
       </c>
       <c r="N20" t="n">
-        <v>1.058716103993102</v>
+        <v>1.004886742957782</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1494676773693255</v>
+        <v>0.04311996685120582</v>
       </c>
       <c r="P20" t="n">
-        <v>73.76946367553609</v>
+        <v>78.74183970243216</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.9923658961867</v>
+        <v>118.9647419230828</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9775902040484578</v>
+        <v>0.9981327428256529</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9799088283879828</v>
+        <v>0.9978082845300096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9831877429831277</v>
+        <v>0.9983172536709913</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9202773781003928</v>
+        <v>0.9984068758189704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9722797947844106</v>
+        <v>0.9983569638625023</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02091856084441039</v>
+        <v>0.001743002609135885</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01875422679930953</v>
+        <v>0.002045870186045786</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02525326944884419</v>
+        <v>0.001827737968468926</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02571253360857684</v>
+        <v>0.0008357409310093002</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02548290152871052</v>
+        <v>0.001331739449739113</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01651927829680919</v>
+        <v>0.004581943864727653</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1446325027247001</v>
+        <v>0.04174928273798108</v>
       </c>
       <c r="N21" t="n">
-        <v>1.059759455870779</v>
+        <v>1.004979352464926</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1507898077962456</v>
+        <v>0.04352663613706635</v>
       </c>
       <c r="P21" t="n">
-        <v>73.73423687088001</v>
+        <v>78.70429203104578</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.9571390915306</v>
+        <v>118.9271942516964</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9771909137346927</v>
+        <v>0.9980973443118967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9795409918094174</v>
+        <v>0.9977788637252056</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9829874348007426</v>
+        <v>0.9982978399593924</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9190445766446558</v>
+        <v>0.9983704603291281</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9718998889498351</v>
+        <v>0.9983321717651701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02129128082549089</v>
+        <v>0.001776045567912202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01909758609924054</v>
+        <v>0.002073333215906202</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02555414734391237</v>
+        <v>0.001848824437169938</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02611014282046725</v>
+        <v>0.0008548442223573736</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02583214508218981</v>
+        <v>0.001351834329763656</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01667173677048694</v>
+        <v>0.004624982931027507</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1459153207360039</v>
+        <v>0.04214315564729583</v>
       </c>
       <c r="N22" t="n">
-        <v>1.060824230040819</v>
+        <v>1.005073748501609</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1521272380260899</v>
+        <v>0.04393727703155996</v>
       </c>
       <c r="P22" t="n">
-        <v>73.69891528197927</v>
+        <v>78.66673195426617</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.9218175026299</v>
+        <v>118.8896341749168</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9767865857566045</v>
+        <v>0.9980612871953392</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9791684719208046</v>
+        <v>0.9977488528122228</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9827905542439949</v>
+        <v>0.998278172063534</v>
       </c>
       <c r="E23" t="n">
-        <v>0.917806087075286</v>
+        <v>0.9983334511442686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9715217855893162</v>
+        <v>0.9983070172324504</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02166870324508929</v>
+        <v>0.001809703303494088</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0194453170635274</v>
+        <v>0.002101347085848838</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02584987668850891</v>
+        <v>0.001870186991585023</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02650958659084895</v>
+        <v>0.0008742589616342156</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02617973163967893</v>
+        <v>0.001372222976609619</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01682503874287274</v>
+        <v>0.004668420866405116</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1472029321891697</v>
+        <v>0.0425406077001033</v>
       </c>
       <c r="N23" t="n">
-        <v>1.061902437982388</v>
+        <v>1.005169900812429</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1534696657645401</v>
+        <v>0.04435164944109461</v>
       </c>
       <c r="P23" t="n">
-        <v>73.66377261248951</v>
+        <v>78.62918473572475</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.8866748331401</v>
+        <v>118.8520869563754</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9763748896977231</v>
+        <v>0.9980245836341698</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9787887797719826</v>
+        <v>0.9977182995475282</v>
       </c>
       <c r="D24" t="n">
-        <v>0.982591843497263</v>
+        <v>0.9982583665527335</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9165507725883711</v>
+        <v>0.998296272537221</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9711392355689683</v>
+        <v>0.9982817156673696</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02205300344468658</v>
+        <v>0.001843964466745553</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01979974301789365</v>
+        <v>0.002129867217307926</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02614835511556142</v>
+        <v>0.001891699018354009</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0269144568167025</v>
+        <v>0.0008937625785133194</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02653140596613196</v>
+        <v>0.001392730798433664</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01697961621482494</v>
+        <v>0.004712182681556859</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1485025368291282</v>
+        <v>0.04294140736801198</v>
       </c>
       <c r="N24" t="n">
-        <v>1.063000294139405</v>
+        <v>1.005267776975547</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1548245972645742</v>
+        <v>0.04476951198063586</v>
       </c>
       <c r="P24" t="n">
-        <v>73.62861295144346</v>
+        <v>78.59167484738832</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.8515151720941</v>
+        <v>118.8145770680389</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.975954359487136</v>
+        <v>0.9979873080024514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9784004248531383</v>
+        <v>0.9976873398146904</v>
       </c>
       <c r="D25" t="n">
-        <v>0.982387725220714</v>
+        <v>0.9982385486749207</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9152677030331069</v>
+        <v>0.9982592874581452</v>
       </c>
       <c r="F25" t="n">
-        <v>0.970747398914095</v>
+        <v>0.9982564684433342</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02244554993712676</v>
+        <v>0.001878759632743558</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02016225528782405</v>
+        <v>0.00215876676893689</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02645495605747861</v>
+        <v>0.001913224477722733</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02732827874422791</v>
+        <v>0.0009131646720778733</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02689161740085325</v>
+        <v>0.001413194574900303</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01713578839562426</v>
+        <v>0.004756189270950896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1498183898496001</v>
+        <v>0.04334466094853619</v>
       </c>
       <c r="N25" t="n">
-        <v>1.064121708034304</v>
+        <v>1.00536717866013</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1561964688723188</v>
+        <v>0.04518993290093297</v>
       </c>
       <c r="P25" t="n">
-        <v>73.59332581101133</v>
+        <v>78.55428697940285</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.816228031662</v>
+        <v>118.7771892000535</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9755274878439414</v>
+        <v>0.9979493044672025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.978006189673301</v>
+        <v>0.9976557315059017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9821843617286701</v>
+        <v>0.9982185299699253</v>
       </c>
       <c r="E26" t="n">
-        <v>0.913972710165503</v>
+        <v>0.99822157923268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9703540873039168</v>
+        <v>0.9982308526430996</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02284401587854944</v>
+        <v>0.001914234264736024</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02053025652327782</v>
+        <v>0.002188271737746704</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02676042325652813</v>
+        <v>0.001934968068285904</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0277459462373149</v>
+        <v>0.0009329461227848057</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02725318474692152</v>
+        <v>0.001433957095535355</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01729317523918093</v>
+        <v>0.00480065384479163</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1511423695677338</v>
+        <v>0.04375196298151688</v>
       </c>
       <c r="N26" t="n">
-        <v>1.065260032416156</v>
+        <v>1.005468521420793</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1575768131480693</v>
+        <v>0.04561457462468909</v>
       </c>
       <c r="P26" t="n">
-        <v>73.55813216618709</v>
+        <v>78.51687519614441</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.7810343868377</v>
+        <v>118.739777416795</v>
       </c>
     </row>
   </sheetData>
